--- a/biology/Zoologie/Chalodeta_chitinosa/Chalodeta_chitinosa.xlsx
+++ b/biology/Zoologie/Chalodeta_chitinosa/Chalodeta_chitinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalodeta chitinosa est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Chalodeta.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chalodeta chitinosa a été décrit par Jason Piers Wilton Hall en 2002[1].
-Noms vernaculaires</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalodeta chitinosa a été décrit par Jason Piers Wilton Hall en 2002.
+</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chalodeta chitinosa est de couleur marron avec une bordure marron roux ornée d'une ligne submarginale de points marron. Le revers est plus clair
 </t>
@@ -570,44 +586,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plante hôte</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chalodeta_chitinosa</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chalodeta_chitinosa</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Chalodeta chitinosa est présent au Venezuela, en Colombie, en  Équateur, en Guyana, en Bolivie et au Brésil[1].
-Biotope
-Protection</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalodeta chitinosa est présent au Venezuela, en Colombie, en  Équateur, en Guyana, en Bolivie et au Brésil.
+</t>
         </is>
       </c>
     </row>
